--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.83444935418507</v>
+        <v>89.85257369671191</v>
       </c>
       <c r="D2" t="n">
-        <v>2.452855230506117</v>
+        <v>2.672466966588842</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.25540309594493</v>
+        <v>89.08501306124992</v>
       </c>
       <c r="D3" t="n">
-        <v>2.44977297111368</v>
+        <v>2.718860364238991</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.43677563889378</v>
+        <v>88.10804746174594</v>
       </c>
       <c r="D4" t="n">
-        <v>2.570274872814835</v>
+        <v>2.621081308925552</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.9389936059334</v>
+        <v>87.19548284640939</v>
       </c>
       <c r="D5" t="n">
-        <v>2.768920666611538</v>
+        <v>2.759657155677061</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.94294426995143</v>
+        <v>85.70491202022991</v>
       </c>
       <c r="D6" t="n">
-        <v>2.438969613760804</v>
+        <v>2.664701547568129</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.28030656667848</v>
+        <v>85.26438342955292</v>
       </c>
       <c r="D7" t="n">
-        <v>2.881791934474924</v>
+        <v>2.453029186158224</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.90830893122978</v>
+        <v>83.89095912496597</v>
       </c>
       <c r="D8" t="n">
-        <v>2.482550884937306</v>
+        <v>2.83409668508502</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.76120103366976</v>
+        <v>82.35111436847831</v>
       </c>
       <c r="D9" t="n">
-        <v>3.060719875160336</v>
+        <v>2.710309733344422</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.86555577010522</v>
+        <v>81.86664520976126</v>
       </c>
       <c r="D10" t="n">
-        <v>2.796665273540379</v>
+        <v>2.787751384713959</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.07475430049091</v>
+        <v>80.41651826261283</v>
       </c>
       <c r="D11" t="n">
-        <v>2.682891498981006</v>
+        <v>3.024761271791359</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.55728330978222</v>
+        <v>80.41352418020952</v>
       </c>
       <c r="D12" t="n">
-        <v>3.064410892277195</v>
+        <v>2.521596222803125</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.1983097428845</v>
+        <v>78.39737284347837</v>
       </c>
       <c r="D13" t="n">
-        <v>3.045547512531992</v>
+        <v>3.066257163327363</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.37386437441191</v>
+        <v>78.35168212626358</v>
       </c>
       <c r="D14" t="n">
-        <v>3.128636211470867</v>
+        <v>2.82139233939182</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.6730356888979</v>
+        <v>76.83999071556917</v>
       </c>
       <c r="D15" t="n">
-        <v>2.765018890595671</v>
+        <v>3.242198928308804</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.11891760561751</v>
+        <v>75.9601120653123</v>
       </c>
       <c r="D16" t="n">
-        <v>2.632577401790865</v>
+        <v>3.036806802027615</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.05453263421199</v>
+        <v>74.17474596229027</v>
       </c>
       <c r="D17" t="n">
-        <v>2.890942572419998</v>
+        <v>3.104004471958699</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.47813562298178</v>
+        <v>74.15586085743276</v>
       </c>
       <c r="D18" t="n">
-        <v>2.751576820498505</v>
+        <v>3.257834588098332</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.86342090259586</v>
+        <v>72.23041869469328</v>
       </c>
       <c r="D19" t="n">
-        <v>2.989972580011191</v>
+        <v>3.486267799291902</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.16471382333428</v>
+        <v>71.87201225531186</v>
       </c>
       <c r="D20" t="n">
-        <v>3.477554540412777</v>
+        <v>3.057937041179917</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.52429630940389</v>
+        <v>70.79197770504622</v>
       </c>
       <c r="D21" t="n">
-        <v>3.144754270009188</v>
+        <v>2.968547757691074</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.88894645808652</v>
+        <v>69.86673485203291</v>
       </c>
       <c r="D22" t="n">
-        <v>3.39715582633431</v>
+        <v>2.891948682950217</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.86528814407097</v>
+        <v>69.05057647733615</v>
       </c>
       <c r="D23" t="n">
-        <v>3.737134701180355</v>
+        <v>3.108924631720368</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.70418828842465</v>
+        <v>67.60842518816156</v>
       </c>
       <c r="D24" t="n">
-        <v>3.038184200469448</v>
+        <v>2.982736208967453</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.71019192382506</v>
+        <v>67.28493661310031</v>
       </c>
       <c r="D25" t="n">
-        <v>3.249544167379304</v>
+        <v>3.364088689861219</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.22717322527487</v>
+        <v>65.83200398571445</v>
       </c>
       <c r="D26" t="n">
-        <v>3.064905249141579</v>
+        <v>3.21302030301889</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.20839990465269</v>
+        <v>64.88479394952564</v>
       </c>
       <c r="D27" t="n">
-        <v>3.396187020725433</v>
+        <v>3.343884822892954</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.26087594376494</v>
+        <v>63.98042457736288</v>
       </c>
       <c r="D28" t="n">
-        <v>3.272439815976489</v>
+        <v>3.488492524242406</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.80321084740246</v>
+        <v>61.92837377034241</v>
       </c>
       <c r="D29" t="n">
-        <v>3.442045808580632</v>
+        <v>3.528976485460965</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.33008138297971</v>
+        <v>61.69226976834619</v>
       </c>
       <c r="D30" t="n">
-        <v>3.008315003737307</v>
+        <v>3.256632839569348</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.40057881989465</v>
+        <v>61.1285329471452</v>
       </c>
       <c r="D31" t="n">
-        <v>3.608287443413676</v>
+        <v>3.487476686105434</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.74925661899185</v>
+        <v>60.27567095818748</v>
       </c>
       <c r="D32" t="n">
-        <v>3.670444694883395</v>
+        <v>3.421192815531549</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.17278894111009</v>
+        <v>59.50641575357171</v>
       </c>
       <c r="D33" t="n">
-        <v>3.44370904043946</v>
+        <v>3.120921678275953</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.81128132002537</v>
+        <v>58.09348418039171</v>
       </c>
       <c r="D34" t="n">
-        <v>3.0833635908799</v>
+        <v>3.003032371069562</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.29235815700576</v>
+        <v>56.54111191011034</v>
       </c>
       <c r="D35" t="n">
-        <v>3.52572281398835</v>
+        <v>3.23639892937257</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.18288344473211</v>
+        <v>56.42267971732889</v>
       </c>
       <c r="D36" t="n">
-        <v>3.461434002013453</v>
+        <v>3.604535875628513</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01056858425167</v>
+        <v>54.58864312051109</v>
       </c>
       <c r="D37" t="n">
-        <v>3.766019574488214</v>
+        <v>3.215924230454498</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.65666297097793</v>
+        <v>54.30875218076037</v>
       </c>
       <c r="D38" t="n">
-        <v>4.003376565904564</v>
+        <v>4.108866575918691</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.08888990916027</v>
+        <v>52.91047040047647</v>
       </c>
       <c r="D39" t="n">
-        <v>3.939832951648847</v>
+        <v>3.478469825563469</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.68215829682039</v>
+        <v>51.64140895529533</v>
       </c>
       <c r="D40" t="n">
-        <v>3.696675559077012</v>
+        <v>4.167474173277849</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.91450211797763</v>
+        <v>50.79094336349711</v>
       </c>
       <c r="D41" t="n">
-        <v>4.251650120651314</v>
+        <v>3.641818505340995</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.64298322008278</v>
+        <v>49.5163977981193</v>
       </c>
       <c r="D42" t="n">
-        <v>3.294096681800513</v>
+        <v>3.615238811209386</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.1420932607065</v>
+        <v>48.91006455822338</v>
       </c>
       <c r="D43" t="n">
-        <v>3.903034717932685</v>
+        <v>4.150419128336379</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.75385881147777</v>
+        <v>47.04638251195028</v>
       </c>
       <c r="D44" t="n">
-        <v>3.824107384635137</v>
+        <v>3.960621943752473</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.6604422839868</v>
+        <v>47.20817120363557</v>
       </c>
       <c r="D45" t="n">
-        <v>3.729910374767272</v>
+        <v>4.026673554602499</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.88171669211383</v>
+        <v>46.05218343248962</v>
       </c>
       <c r="D46" t="n">
-        <v>3.644558042844343</v>
+        <v>3.857763766881741</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.92817506875298</v>
+        <v>44.62076906353748</v>
       </c>
       <c r="D47" t="n">
-        <v>3.967257929270231</v>
+        <v>4.295462882380453</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.35504427749141</v>
+        <v>44.19185961125577</v>
       </c>
       <c r="D48" t="n">
-        <v>3.610565137676514</v>
+        <v>4.201855817707746</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.4019871945504</v>
+        <v>43.22152992181162</v>
       </c>
       <c r="D49" t="n">
-        <v>4.252188020007598</v>
+        <v>3.714458780802505</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.7499791551522</v>
+        <v>41.88658730885795</v>
       </c>
       <c r="D50" t="n">
-        <v>4.533237198262121</v>
+        <v>4.335260048252104</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.91343512633348</v>
+        <v>40.99014142053492</v>
       </c>
       <c r="D51" t="n">
-        <v>3.670452479667424</v>
+        <v>3.842168076288489</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.78050956896067</v>
+        <v>39.52355627178717</v>
       </c>
       <c r="D52" t="n">
-        <v>4.280951042576978</v>
+        <v>3.715428445400464</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.04602916452124</v>
+        <v>38.662820669637</v>
       </c>
       <c r="D53" t="n">
-        <v>4.115116978028099</v>
+        <v>4.080236201764751</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.94599050799246</v>
+        <v>37.83756011383039</v>
       </c>
       <c r="D54" t="n">
-        <v>4.237413088036836</v>
+        <v>4.202814293791655</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.94712541261165</v>
+        <v>36.22824239655755</v>
       </c>
       <c r="D55" t="n">
-        <v>3.505827668946361</v>
+        <v>4.110510710687524</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.64365150146078</v>
+        <v>36.40256797062383</v>
       </c>
       <c r="D56" t="n">
-        <v>4.040944542816077</v>
+        <v>4.371978380554381</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.87631700798769</v>
+        <v>33.9830770847699</v>
       </c>
       <c r="D57" t="n">
-        <v>4.210732549075947</v>
+        <v>3.917307616867017</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.35338519994109</v>
+        <v>33.98916746578134</v>
       </c>
       <c r="D58" t="n">
-        <v>4.349754204765968</v>
+        <v>4.760547981147398</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.91168116287291</v>
+        <v>31.80490496301283</v>
       </c>
       <c r="D59" t="n">
-        <v>4.404722048566708</v>
+        <v>4.438501517450992</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.78677413654653</v>
+        <v>31.92209435377916</v>
       </c>
       <c r="D60" t="n">
-        <v>4.117330743698767</v>
+        <v>4.616499525569695</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.30547661232019</v>
+        <v>30.35363614978069</v>
       </c>
       <c r="D61" t="n">
-        <v>4.055169342706142</v>
+        <v>4.490036339742244</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.67442744735737</v>
+        <v>29.66564683723505</v>
       </c>
       <c r="D62" t="n">
-        <v>4.195521516097489</v>
+        <v>4.51492427646543</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.45504400120515</v>
+        <v>28.20512189685961</v>
       </c>
       <c r="D63" t="n">
-        <v>4.006371193267431</v>
+        <v>4.514982382186625</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.71162690649952</v>
+        <v>27.08583355279687</v>
       </c>
       <c r="D64" t="n">
-        <v>4.239934126574372</v>
+        <v>4.502442856733076</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.92484934725205</v>
+        <v>26.84508492878169</v>
       </c>
       <c r="D65" t="n">
-        <v>4.153490845335083</v>
+        <v>4.355811370208727</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.14408181427601</v>
+        <v>24.49673446864051</v>
       </c>
       <c r="D66" t="n">
-        <v>4.721566371789137</v>
+        <v>4.574221075069246</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.61600928096065</v>
+        <v>24.75173262991657</v>
       </c>
       <c r="D67" t="n">
-        <v>4.225505069684679</v>
+        <v>4.961668457953348</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.41416580144116</v>
+        <v>23.60706596042492</v>
       </c>
       <c r="D68" t="n">
-        <v>4.882961101112136</v>
+        <v>4.713182378170027</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.8324003262919</v>
+        <v>23.05892250508758</v>
       </c>
       <c r="D69" t="n">
-        <v>4.556064397861962</v>
+        <v>4.702094726490801</v>
       </c>
     </row>
   </sheetData>
